--- a/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>29.15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.30</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003797</t>
+          <t>510880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安新瑞利灵活配置混合A</t>
+          <t>华泰柏瑞上证红利ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.01</t>
+          <t>138.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5442</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003798</t>
+          <t>001718</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安新瑞利灵活配置混合C</t>
+          <t>工银瑞信物流产业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.01</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001849</t>
+          <t>121001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源强势共识100强等权重股票</t>
+          <t>国投瑞银融华债券</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>003797</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>华安新瑞利灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>97.61</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -688,15 +758,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>77.86</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.27</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>121001</t>
+          <t>003798</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银融华债券</t>
+          <t>华安新瑞利灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29.15</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -734,26 +824,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001718</t>
+          <t>001849</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信物流产业股票</t>
+          <t>前海开源强势共识100强等权重股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>81.30</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1406,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3.72</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1422,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1406,14 +1539,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -1422,14 +1555,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>3.72</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -1438,13 +1571,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>121001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银融华债券</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>29.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>003805</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>华安新恒利灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>138.99</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.61</t>
+          <t>29.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.5442</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -639,226 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001718</t>
+          <t>003806</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信物流产业股票</t>
+          <t>华安新恒利灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.30</t>
+          <t>29.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>121001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银融华债券</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>29.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0447</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003797</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安新瑞利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>25.01</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0363</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>080002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长盛创新先锋混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>77.86</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003798</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安新瑞利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001849</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源强势共识100强等权重股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -923,35 +771,73 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>121001</t>
+          <t>009327</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银融华债券</t>
+          <t>东兴兴晟混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>26.87</t>
+          <t>79.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0290</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1212,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,7 +1119,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1263,73 +1149,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009327</t>
+          <t>121001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东兴兴晟混合A</t>
+          <t>国投瑞银融华债券</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.83</t>
+          <t>26.87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0290</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009328</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1344,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1365,7 +1213,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1395,36 +1243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003805</t>
+          <t>510880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安新恒利灵活配置混合A</t>
+          <t>华泰柏瑞上证红利ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>138.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29.51</t>
+          <t>97.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>3.5442</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1433,36 +1281,226 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003806</t>
+          <t>001718</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安新恒利灵活配置混合C</t>
+          <t>工银瑞信物流产业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.51</t>
+          <t>81.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1476,128 +1514,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.04</v>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>3.72</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003805</t>
+          <t>013934</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安新恒利灵活配置混合A</t>
+          <t>长江红利回报混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29.51</t>
+          <t>87.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0796</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003806</t>
+          <t>013935</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安新恒利灵活配置混合C</t>
+          <t>长江红利回报混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.51</t>
+          <t>87.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -771,36 +788,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009327</t>
+          <t>003805</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东兴兴晟混合A</t>
+          <t>华安新恒利灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.83</t>
+          <t>29.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -809,36 +826,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009328</t>
+          <t>003806</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东兴兴晟混合C</t>
+          <t>华安新恒利灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.83</t>
+          <t>29.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -847,6 +864,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1092,7 +1241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1186,7 +1335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1508,7 +1657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600548-深高速.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>3.72</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.78</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0796</t>
+          <t>0.0900</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,188 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>013935</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>长江红利回报混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>0.24</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011554</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通欣利混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011555</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通欣利混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -788,36 +957,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003805</t>
+          <t>013934</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安新恒利灵活配置混合A</t>
+          <t>长江红利回报混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29.51</t>
+          <t>87.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0796</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -826,36 +995,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003806</t>
+          <t>013935</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安新恒利灵活配置混合C</t>
+          <t>长江红利回报混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.51</t>
+          <t>87.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -920,36 +1089,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009327</t>
+          <t>003805</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东兴兴晟混合A</t>
+          <t>华安新恒利灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.83</t>
+          <t>29.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -958,36 +1127,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009328</t>
+          <t>003806</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东兴兴晟混合C</t>
+          <t>华安新恒利灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.83</t>
+          <t>29.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -996,6 +1165,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1241,7 +1542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1335,7 +1636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1657,7 +1958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
